--- a/biology/Histoire de la zoologie et de la botanique/Giovanni_Battista_Brocchi/Giovanni_Battista_Brocchi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giovanni_Battista_Brocchi/Giovanni_Battista_Brocchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Battista Brocchi (né le 18 février 1772 à Bassano et mort le 25 septembre 1826 (à 54 ans) à Khartoum) est un naturaliste, géologue et minéralogiste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Battista Brocchi fait ses études à l'université de Padoue et devient professeur d'histoire naturelle à Brescia (1802), puis inspecteur du jardin botanique de la ville (1808).
 Membre du conseil des mines et de l'Institut de Milan, il part mener des travaux de géologie en Égypte et est nommé en 1822 ingénieur de Mehemet Ali, vice-roi d'Égypte. En 1825, il commence des études minéralogiques et géologiques dans le royaume de Sennar, mais malade, meurt à Khartoum.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On lui doit un grand nombre d'études comme :
 Trattato mineralogico e chemico sulle miniere di ferro del dipartimento del Mella (1808)
